--- a/Draft Output.xlsx
+++ b/Draft Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ekualisasi PPN Keluaran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anagaghaisan/Downloads/untitled folder 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F89145B3-72F7-42D1-8250-C5C27918D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28922CA-79FB-FD4F-8403-9375F8AEA100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6518FBC7-83DD-4BC9-842C-15F4FEE7B669}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{6518FBC7-83DD-4BC9-842C-15F4FEE7B669}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Account Name</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Keterangan (Digunggung/Tidak Digunngung)</t>
+  </si>
+  <si>
+    <t>Nett</t>
   </si>
 </sst>
 </file>
@@ -95,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -163,8 +166,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -176,16 +179,16 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -212,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,34 +511,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4546B0E5-70EA-4D1A-B9E8-226BE0C38ECA}">
-  <dimension ref="A2:R4"/>
+  <dimension ref="A2:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,17 +553,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="1"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -584,31 +589,34 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
